--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H2">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I2">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J2">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.039474</v>
+        <v>5.644520666666666</v>
       </c>
       <c r="N2">
-        <v>0.118422</v>
+        <v>16.933562</v>
       </c>
       <c r="O2">
-        <v>3.481937703818737E-05</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="P2">
-        <v>3.481937703818736E-05</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="Q2">
-        <v>0.006501775697999999</v>
+        <v>3.329951100176</v>
       </c>
       <c r="R2">
-        <v>0.058515981282</v>
+        <v>29.969559901584</v>
       </c>
       <c r="S2">
-        <v>1.870915081594626E-06</v>
+        <v>0.0005877142504280907</v>
       </c>
       <c r="T2">
-        <v>1.870915081594626E-06</v>
+        <v>0.0005877142504280906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H3">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I3">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J3">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>298.8145063333333</v>
+        <v>414.632151</v>
       </c>
       <c r="N3">
-        <v>896.443519</v>
+        <v>1243.896453</v>
       </c>
       <c r="O3">
-        <v>0.2635794436971211</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="P3">
-        <v>0.2635794436971211</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="Q3">
-        <v>49.21783694299877</v>
+        <v>244.609749689544</v>
       </c>
       <c r="R3">
-        <v>442.960532486989</v>
+        <v>2201.487747205896</v>
       </c>
       <c r="S3">
-        <v>0.01416265305006551</v>
+        <v>0.04317199603279309</v>
       </c>
       <c r="T3">
-        <v>0.01416265305006551</v>
+        <v>0.04317199603279308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H4">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I4">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J4">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>543.0496726666667</v>
+        <v>0.04514066666666666</v>
       </c>
       <c r="N4">
-        <v>1629.149018</v>
+        <v>0.135422</v>
       </c>
       <c r="O4">
-        <v>0.4790153342211303</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="P4">
-        <v>0.4790153342211303</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="Q4">
-        <v>89.44589260148422</v>
+        <v>0.026630465456</v>
       </c>
       <c r="R4">
-        <v>805.013033413358</v>
+        <v>0.239674189104</v>
       </c>
       <c r="S4">
-        <v>0.02573845626607619</v>
+        <v>4.700100263693658E-06</v>
       </c>
       <c r="T4">
-        <v>0.02573845626607619</v>
+        <v>4.700100263693657E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1647103333333333</v>
+        <v>0.589944</v>
       </c>
       <c r="H5">
-        <v>0.494131</v>
+        <v>1.769832</v>
       </c>
       <c r="I5">
-        <v>0.05373200903458847</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J5">
-        <v>0.05373200903458848</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>291.7754463333334</v>
+        <v>598.9054160000001</v>
       </c>
       <c r="N5">
-        <v>875.3263390000001</v>
+        <v>1796.716248</v>
       </c>
       <c r="O5">
-        <v>0.2573704027047104</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="P5">
-        <v>0.2573704027047103</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="Q5">
-        <v>48.05843102404545</v>
+        <v>353.3206567367041</v>
       </c>
       <c r="R5">
-        <v>432.525879216409</v>
+        <v>3179.885910630337</v>
       </c>
       <c r="S5">
-        <v>0.01382902880336517</v>
+        <v>0.06235874902901656</v>
       </c>
       <c r="T5">
-        <v>0.01382902880336517</v>
+        <v>0.06235874902901655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6783136666666666</v>
+        <v>0.589944</v>
       </c>
       <c r="H6">
-        <v>2.034941</v>
+        <v>1.769832</v>
       </c>
       <c r="I6">
-        <v>0.2212803248467603</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="J6">
-        <v>0.2212803248467603</v>
+        <v>0.1315369184485108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.039474</v>
+        <v>244.0786283333333</v>
       </c>
       <c r="N6">
-        <v>0.118422</v>
+        <v>732.2358850000001</v>
       </c>
       <c r="O6">
-        <v>3.481937703818737E-05</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="P6">
-        <v>3.481937703818736E-05</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="Q6">
-        <v>0.026775753678</v>
+        <v>143.99272231348</v>
       </c>
       <c r="R6">
-        <v>0.240981783102</v>
+        <v>1295.93450082132</v>
       </c>
       <c r="S6">
-        <v>7.704843061971926E-06</v>
+        <v>0.02541375903600936</v>
       </c>
       <c r="T6">
-        <v>7.704843061971924E-06</v>
+        <v>0.02541375903600935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>2.034941</v>
       </c>
       <c r="I7">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J7">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>298.8145063333333</v>
+        <v>5.644520666666666</v>
       </c>
       <c r="N7">
-        <v>896.443519</v>
+        <v>16.933562</v>
       </c>
       <c r="O7">
-        <v>0.2635794436971211</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="P7">
-        <v>0.2635794436971211</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="Q7">
-        <v>202.6899634441532</v>
+        <v>3.828755509982444</v>
       </c>
       <c r="R7">
-        <v>1824.209670997379</v>
+        <v>34.45879958984199</v>
       </c>
       <c r="S7">
-        <v>0.05832494492422732</v>
+        <v>0.0006757499155176249</v>
       </c>
       <c r="T7">
-        <v>0.05832494492422732</v>
+        <v>0.0006757499155176249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>2.034941</v>
       </c>
       <c r="I8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J8">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>543.0496726666667</v>
+        <v>414.632151</v>
       </c>
       <c r="N8">
-        <v>1629.149018</v>
+        <v>1243.896453</v>
       </c>
       <c r="O8">
-        <v>0.4790153342211303</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="P8">
-        <v>0.4790153342211303</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="Q8">
-        <v>368.3580146486597</v>
+        <v>281.250654662697</v>
       </c>
       <c r="R8">
-        <v>3315.222131837938</v>
+        <v>2531.255891964273</v>
       </c>
       <c r="S8">
-        <v>0.1059966687630312</v>
+        <v>0.04963887237826414</v>
       </c>
       <c r="T8">
-        <v>0.1059966687630312</v>
+        <v>0.04963887237826414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>2.034941</v>
       </c>
       <c r="I9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J9">
-        <v>0.2212803248467603</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>291.7754463333334</v>
+        <v>0.04514066666666666</v>
       </c>
       <c r="N9">
-        <v>875.3263390000001</v>
+        <v>0.135422</v>
       </c>
       <c r="O9">
-        <v>0.2573704027047104</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="P9">
-        <v>0.2573704027047103</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="Q9">
-        <v>197.9152728456665</v>
+        <v>0.03061953112244444</v>
       </c>
       <c r="R9">
-        <v>1781.237455610999</v>
+        <v>0.275575780102</v>
       </c>
       <c r="S9">
-        <v>0.05695100631643982</v>
+        <v>5.40414385698814E-06</v>
       </c>
       <c r="T9">
-        <v>0.05695100631643981</v>
+        <v>5.40414385698814E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3320596666666666</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H10">
-        <v>0.9961789999999999</v>
+        <v>2.034941</v>
       </c>
       <c r="I10">
-        <v>0.1083249159191941</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J10">
-        <v>0.1083249159191941</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.039474</v>
+        <v>598.9054160000001</v>
       </c>
       <c r="N10">
-        <v>0.118422</v>
+        <v>1796.716248</v>
       </c>
       <c r="O10">
-        <v>3.481937703818737E-05</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="P10">
-        <v>3.481937703818736E-05</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="Q10">
-        <v>0.013107723282</v>
+        <v>406.2457287134853</v>
       </c>
       <c r="R10">
-        <v>0.117969509538</v>
+        <v>3656.211558421368</v>
       </c>
       <c r="S10">
-        <v>3.771806090020365E-06</v>
+        <v>0.07169967268523564</v>
       </c>
       <c r="T10">
-        <v>3.771806090020364E-06</v>
+        <v>0.07169967268523564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3320596666666666</v>
+        <v>0.6783136666666666</v>
       </c>
       <c r="H11">
-        <v>0.9961789999999999</v>
+        <v>2.034941</v>
       </c>
       <c r="I11">
-        <v>0.1083249159191941</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="J11">
-        <v>0.1083249159191941</v>
+        <v>0.1512402693388587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>298.8145063333333</v>
+        <v>244.0786283333333</v>
       </c>
       <c r="N11">
-        <v>896.443519</v>
+        <v>732.2358850000001</v>
       </c>
       <c r="O11">
-        <v>0.2635794436971211</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="P11">
-        <v>0.2635794436971211</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="Q11">
-        <v>99.22424536821121</v>
+        <v>165.5618693397539</v>
       </c>
       <c r="R11">
-        <v>893.018208313901</v>
+        <v>1490.056824057785</v>
       </c>
       <c r="S11">
-        <v>0.0285522210765186</v>
+        <v>0.02922057021598429</v>
       </c>
       <c r="T11">
-        <v>0.0285522210765186</v>
+        <v>0.02922057021598429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H12">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I12">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J12">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>543.0496726666667</v>
+        <v>5.644520666666666</v>
       </c>
       <c r="N12">
-        <v>1629.149018</v>
+        <v>16.933562</v>
       </c>
       <c r="O12">
-        <v>0.4790153342211303</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="P12">
-        <v>0.4790153342211303</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="Q12">
-        <v>180.3248932891358</v>
+        <v>1.721300340313777</v>
       </c>
       <c r="R12">
-        <v>1622.924039602222</v>
+        <v>15.491703062824</v>
       </c>
       <c r="S12">
-        <v>0.05188929580350861</v>
+        <v>0.0003037980765590404</v>
       </c>
       <c r="T12">
-        <v>0.05188929580350861</v>
+        <v>0.0003037980765590404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3320596666666666</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H13">
-        <v>0.9961789999999999</v>
+        <v>0.914852</v>
       </c>
       <c r="I13">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J13">
-        <v>0.1083249159191941</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>291.7754463333334</v>
+        <v>414.632151</v>
       </c>
       <c r="N13">
-        <v>875.3263390000001</v>
+        <v>1243.896453</v>
       </c>
       <c r="O13">
-        <v>0.2573704027047104</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="P13">
-        <v>0.2573704027047103</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="Q13">
-        <v>96.88685745096457</v>
+        <v>126.442350868884</v>
       </c>
       <c r="R13">
-        <v>871.9817170586811</v>
+        <v>1137.981157819956</v>
       </c>
       <c r="S13">
-        <v>0.02787962723307688</v>
+        <v>0.02231623505202348</v>
       </c>
       <c r="T13">
-        <v>0.02787962723307688</v>
+        <v>0.02231623505202348</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.362438</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H14">
-        <v>4.087314</v>
+        <v>0.914852</v>
       </c>
       <c r="I14">
-        <v>0.4444562125735887</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J14">
-        <v>0.4444562125735887</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.039474</v>
+        <v>0.04514066666666666</v>
       </c>
       <c r="N14">
-        <v>0.118422</v>
+        <v>0.135422</v>
       </c>
       <c r="O14">
-        <v>3.481937703818737E-05</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="P14">
-        <v>3.481937703818736E-05</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="Q14">
-        <v>0.053780877612</v>
+        <v>0.01376567639377778</v>
       </c>
       <c r="R14">
-        <v>0.484027898508</v>
+        <v>0.123891087544</v>
       </c>
       <c r="S14">
-        <v>1.547568844256454E-05</v>
+        <v>2.42955044684505E-06</v>
       </c>
       <c r="T14">
-        <v>1.547568844256454E-05</v>
+        <v>2.42955044684505E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.362438</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H15">
-        <v>4.087314</v>
+        <v>0.914852</v>
       </c>
       <c r="I15">
-        <v>0.4444562125735887</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J15">
-        <v>0.4444562125735887</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>298.8145063333333</v>
+        <v>598.9054160000001</v>
       </c>
       <c r="N15">
-        <v>896.443519</v>
+        <v>1796.716248</v>
       </c>
       <c r="O15">
-        <v>0.2635794436971211</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="P15">
-        <v>0.2635794436971211</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="Q15">
-        <v>407.116238379774</v>
+        <v>182.6366058794773</v>
       </c>
       <c r="R15">
-        <v>3664.046145417966</v>
+        <v>1643.729452915296</v>
       </c>
       <c r="S15">
-        <v>0.1171495212578759</v>
+        <v>0.03223414779860113</v>
       </c>
       <c r="T15">
-        <v>0.1171495212578759</v>
+        <v>0.03223414779860113</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.362438</v>
+        <v>0.3049506666666666</v>
       </c>
       <c r="H16">
-        <v>4.087314</v>
+        <v>0.914852</v>
       </c>
       <c r="I16">
-        <v>0.4444562125735887</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="J16">
-        <v>0.4444562125735887</v>
+        <v>0.06799335355924008</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>543.0496726666667</v>
+        <v>244.0786283333333</v>
       </c>
       <c r="N16">
-        <v>1629.149018</v>
+        <v>732.2358850000001</v>
       </c>
       <c r="O16">
-        <v>0.4790153342211303</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="P16">
-        <v>0.4790153342211303</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="Q16">
-        <v>739.871509928628</v>
+        <v>74.43194042933555</v>
       </c>
       <c r="R16">
-        <v>6658.843589357652</v>
+        <v>669.88746386402</v>
       </c>
       <c r="S16">
-        <v>0.2129013412125953</v>
+        <v>0.01313674308160957</v>
       </c>
       <c r="T16">
-        <v>0.2129013412125953</v>
+        <v>0.01313674308160957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.362438</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H17">
-        <v>4.087314</v>
+        <v>1.239283</v>
       </c>
       <c r="I17">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J17">
-        <v>0.4444562125735887</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>291.7754463333334</v>
+        <v>5.644520666666666</v>
       </c>
       <c r="N17">
-        <v>875.3263390000001</v>
+        <v>16.933562</v>
       </c>
       <c r="O17">
-        <v>0.2573704027047104</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="P17">
-        <v>0.2573704027047103</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="Q17">
-        <v>397.5259555514941</v>
+        <v>2.331719501782888</v>
       </c>
       <c r="R17">
-        <v>3577.733599963447</v>
+        <v>20.985475516046</v>
       </c>
       <c r="S17">
-        <v>0.1143898744146749</v>
+        <v>0.0004115330039310372</v>
       </c>
       <c r="T17">
-        <v>0.1143898744146749</v>
+        <v>0.0004115330039310372</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2558096666666667</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H18">
-        <v>0.767429</v>
+        <v>1.239283</v>
       </c>
       <c r="I18">
-        <v>0.08345054643688657</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J18">
-        <v>0.08345054643688658</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.039474</v>
+        <v>414.632151</v>
       </c>
       <c r="N18">
-        <v>0.118422</v>
+        <v>1243.896453</v>
       </c>
       <c r="O18">
-        <v>3.481937703818737E-05</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="P18">
-        <v>3.481937703818736E-05</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="Q18">
-        <v>0.010097830782</v>
+        <v>171.282191995911</v>
       </c>
       <c r="R18">
-        <v>0.09088047703800001</v>
+        <v>1541.539727963199</v>
       </c>
       <c r="S18">
-        <v>2.905696040428717E-06</v>
+        <v>0.03023016916832101</v>
       </c>
       <c r="T18">
-        <v>2.905696040428717E-06</v>
+        <v>0.03023016916832101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4130943333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.239283</v>
+      </c>
+      <c r="I19">
+        <v>0.09210561618595764</v>
+      </c>
+      <c r="J19">
+        <v>0.09210561618595764</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.2558096666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.767429</v>
-      </c>
-      <c r="I19">
-        <v>0.08345054643688657</v>
-      </c>
-      <c r="J19">
-        <v>0.08345054643688658</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>298.8145063333333</v>
+        <v>0.04514066666666666</v>
       </c>
       <c r="N19">
-        <v>896.443519</v>
+        <v>0.135422</v>
       </c>
       <c r="O19">
-        <v>0.2635794436971211</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="P19">
-        <v>0.2635794436971211</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="Q19">
-        <v>76.43963926029456</v>
+        <v>0.01864735360288889</v>
       </c>
       <c r="R19">
-        <v>687.956753342651</v>
+        <v>0.167826182426</v>
       </c>
       <c r="S19">
-        <v>0.02199584860605533</v>
+        <v>3.291134048367905E-06</v>
       </c>
       <c r="T19">
-        <v>0.02199584860605534</v>
+        <v>3.291134048367905E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2558096666666667</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H20">
-        <v>0.767429</v>
+        <v>1.239283</v>
       </c>
       <c r="I20">
-        <v>0.08345054643688657</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J20">
-        <v>0.08345054643688658</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>543.0496726666667</v>
+        <v>598.9054160000001</v>
       </c>
       <c r="N20">
-        <v>1629.149018</v>
+        <v>1796.716248</v>
       </c>
       <c r="O20">
-        <v>0.4790153342211303</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="P20">
-        <v>0.4790153342211303</v>
+        <v>0.4740779224915965</v>
       </c>
       <c r="Q20">
-        <v>138.9173557483024</v>
+        <v>247.4044335522427</v>
       </c>
       <c r="R20">
-        <v>1250.256201734722</v>
+        <v>2226.639901970184</v>
       </c>
       <c r="S20">
-        <v>0.03997409139240117</v>
+        <v>0.04366523917124716</v>
       </c>
       <c r="T20">
-        <v>0.03997409139240118</v>
+        <v>0.04366523917124716</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2558096666666667</v>
+        <v>0.4130943333333333</v>
       </c>
       <c r="H21">
-        <v>0.767429</v>
+        <v>1.239283</v>
       </c>
       <c r="I21">
-        <v>0.08345054643688657</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="J21">
-        <v>0.08345054643688658</v>
+        <v>0.09210561618595764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>291.7754463333334</v>
+        <v>244.0786283333333</v>
       </c>
       <c r="N21">
-        <v>875.3263390000001</v>
+        <v>732.2358850000001</v>
       </c>
       <c r="O21">
-        <v>0.2573704027047104</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="P21">
-        <v>0.2573704027047103</v>
+        <v>0.1932062825841354</v>
       </c>
       <c r="Q21">
-        <v>74.6389796680479</v>
+        <v>100.8274982522728</v>
       </c>
       <c r="R21">
-        <v>671.7508170124311</v>
+        <v>907.447484270455</v>
       </c>
       <c r="S21">
-        <v>0.02147770074238963</v>
+        <v>0.01779538370841005</v>
       </c>
       <c r="T21">
-        <v>0.02147770074238963</v>
+        <v>0.01779538370841005</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.272073</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H22">
-        <v>0.816219</v>
+        <v>2.596747</v>
       </c>
       <c r="I22">
-        <v>0.08875599118898181</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J22">
-        <v>0.08875599118898181</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.039474</v>
+        <v>5.644520666666666</v>
       </c>
       <c r="N22">
-        <v>0.118422</v>
+        <v>16.933562</v>
       </c>
       <c r="O22">
-        <v>3.481937703818737E-05</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="P22">
-        <v>3.481937703818736E-05</v>
+        <v>0.004468055488605256</v>
       </c>
       <c r="Q22">
-        <v>0.010739809602</v>
+        <v>4.885797369201555</v>
       </c>
       <c r="R22">
-        <v>0.09665828641800001</v>
+        <v>43.972176322814</v>
       </c>
       <c r="S22">
-        <v>3.090428321607193E-06</v>
+        <v>0.000862310782411208</v>
       </c>
       <c r="T22">
-        <v>3.090428321607193E-06</v>
+        <v>0.000862310782411208</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.272073</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H23">
-        <v>0.816219</v>
+        <v>2.596747</v>
       </c>
       <c r="I23">
-        <v>0.08875599118898181</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J23">
-        <v>0.08875599118898181</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>298.8145063333333</v>
+        <v>414.632151</v>
       </c>
       <c r="N23">
-        <v>896.443519</v>
+        <v>1243.896453</v>
       </c>
       <c r="O23">
-        <v>0.2635794436971211</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="P23">
-        <v>0.2635794436971211</v>
+        <v>0.3282120072600945</v>
       </c>
       <c r="Q23">
-        <v>81.299359181629</v>
+        <v>358.898264737599</v>
       </c>
       <c r="R23">
-        <v>731.694232634661</v>
+        <v>3230.084382638391</v>
       </c>
       <c r="S23">
-        <v>0.02339425478237841</v>
+        <v>0.06334315979266243</v>
       </c>
       <c r="T23">
-        <v>0.02339425478237841</v>
+        <v>0.06334315979266243</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.272073</v>
+        <v>0.8655823333333333</v>
       </c>
       <c r="H24">
-        <v>0.816219</v>
+        <v>2.596747</v>
       </c>
       <c r="I24">
-        <v>0.08875599118898181</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="J24">
-        <v>0.08875599118898181</v>
+        <v>0.1929946448987334</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>543.0496726666667</v>
+        <v>0.04514066666666666</v>
       </c>
       <c r="N24">
-        <v>1629.149018</v>
+        <v>0.135422</v>
       </c>
       <c r="O24">
-        <v>0.4790153342211303</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="P24">
-        <v>0.4790153342211303</v>
+        <v>3.573217556813511E-05</v>
       </c>
       <c r="Q24">
-        <v>147.749153591438</v>
+        <v>0.03907296358155555</v>
       </c>
       <c r="R24">
-        <v>1329.742382322942</v>
+        <v>0.351656672234</v>
       </c>
       <c r="S24">
-        <v>0.04251548078351781</v>
+        <v>6.896118535231431E-06</v>
       </c>
       <c r="T24">
-        <v>0.04251548078351781</v>
+        <v>6.896118535231431E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.8655823333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.596747</v>
+      </c>
+      <c r="I25">
+        <v>0.1929946448987334</v>
+      </c>
+      <c r="J25">
+        <v>0.1929946448987334</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>598.9054160000001</v>
+      </c>
+      <c r="N25">
+        <v>1796.716248</v>
+      </c>
+      <c r="O25">
+        <v>0.4740779224915965</v>
+      </c>
+      <c r="P25">
+        <v>0.4740779224915965</v>
+      </c>
+      <c r="Q25">
+        <v>518.4019474272508</v>
+      </c>
+      <c r="R25">
+        <v>4665.617526845257</v>
+      </c>
+      <c r="S25">
+        <v>0.0914945003055949</v>
+      </c>
+      <c r="T25">
+        <v>0.0914945003055949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.8655823333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.596747</v>
+      </c>
+      <c r="I26">
+        <v>0.1929946448987334</v>
+      </c>
+      <c r="J26">
+        <v>0.1929946448987334</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>244.0786283333333</v>
+      </c>
+      <c r="N26">
+        <v>732.2358850000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1932062825841354</v>
+      </c>
+      <c r="P26">
+        <v>0.1932062825841354</v>
+      </c>
+      <c r="Q26">
+        <v>211.2701486295661</v>
+      </c>
+      <c r="R26">
+        <v>1901.431337666095</v>
+      </c>
+      <c r="S26">
+        <v>0.03728777789952955</v>
+      </c>
+      <c r="T26">
+        <v>0.03728777789952955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.272073</v>
-      </c>
-      <c r="H25">
-        <v>0.816219</v>
-      </c>
-      <c r="I25">
-        <v>0.08875599118898181</v>
-      </c>
-      <c r="J25">
-        <v>0.08875599118898181</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>291.7754463333334</v>
-      </c>
-      <c r="N25">
-        <v>875.3263390000001</v>
-      </c>
-      <c r="O25">
-        <v>0.2573704027047104</v>
-      </c>
-      <c r="P25">
-        <v>0.2573704027047103</v>
-      </c>
-      <c r="Q25">
-        <v>79.38422101024902</v>
-      </c>
-      <c r="R25">
-        <v>714.4579890922411</v>
-      </c>
-      <c r="S25">
-        <v>0.02284316519476397</v>
-      </c>
-      <c r="T25">
-        <v>0.02284316519476397</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.633122</v>
+      </c>
+      <c r="H27">
+        <v>4.899366000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="J27">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.644520666666666</v>
+      </c>
+      <c r="N27">
+        <v>16.933562</v>
+      </c>
+      <c r="O27">
+        <v>0.004468055488605256</v>
+      </c>
+      <c r="P27">
+        <v>0.004468055488605256</v>
+      </c>
+      <c r="Q27">
+        <v>9.218190880188001</v>
+      </c>
+      <c r="R27">
+        <v>82.96371792169201</v>
+      </c>
+      <c r="S27">
+        <v>0.001626949459758256</v>
+      </c>
+      <c r="T27">
+        <v>0.001626949459758255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.633122</v>
+      </c>
+      <c r="H28">
+        <v>4.899366000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="J28">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>414.632151</v>
+      </c>
+      <c r="N28">
+        <v>1243.896453</v>
+      </c>
+      <c r="O28">
+        <v>0.3282120072600945</v>
+      </c>
+      <c r="P28">
+        <v>0.3282120072600945</v>
+      </c>
+      <c r="Q28">
+        <v>677.1448877054221</v>
+      </c>
+      <c r="R28">
+        <v>6094.303989348799</v>
+      </c>
+      <c r="S28">
+        <v>0.1195115748360304</v>
+      </c>
+      <c r="T28">
+        <v>0.1195115748360304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.633122</v>
+      </c>
+      <c r="H29">
+        <v>4.899366000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="J29">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04514066666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.135422</v>
+      </c>
+      <c r="O29">
+        <v>3.573217556813511E-05</v>
+      </c>
+      <c r="P29">
+        <v>3.573217556813511E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.07372021582800001</v>
+      </c>
+      <c r="R29">
+        <v>0.663481942452</v>
+      </c>
+      <c r="S29">
+        <v>1.301112841700893E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.301112841700893E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.633122</v>
+      </c>
+      <c r="H30">
+        <v>4.899366000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="J30">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>598.9054160000001</v>
+      </c>
+      <c r="N30">
+        <v>1796.716248</v>
+      </c>
+      <c r="O30">
+        <v>0.4740779224915965</v>
+      </c>
+      <c r="P30">
+        <v>0.4740779224915965</v>
+      </c>
+      <c r="Q30">
+        <v>978.0856107887522</v>
+      </c>
+      <c r="R30">
+        <v>8802.770497098771</v>
+      </c>
+      <c r="S30">
+        <v>0.1726256135019012</v>
+      </c>
+      <c r="T30">
+        <v>0.1726256135019011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.633122</v>
+      </c>
+      <c r="H31">
+        <v>4.899366000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="J31">
+        <v>0.3641291975686995</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>244.0786283333333</v>
+      </c>
+      <c r="N31">
+        <v>732.2358850000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1932062825841354</v>
+      </c>
+      <c r="P31">
+        <v>0.1932062825841354</v>
+      </c>
+      <c r="Q31">
+        <v>398.6101776609901</v>
+      </c>
+      <c r="R31">
+        <v>3587.49159894891</v>
+      </c>
+      <c r="S31">
+        <v>0.07035204864259265</v>
+      </c>
+      <c r="T31">
+        <v>0.07035204864259263</v>
       </c>
     </row>
   </sheetData>
